--- a/website/typescript.xlsx
+++ b/website/typescript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TypeScript菜鸟教程</t>
   </si>
@@ -29,18 +29,36 @@
   <si>
     <t>https://www.tslang.cn/</t>
   </si>
+  <si>
+    <t>vue3.0官方文档</t>
+  </si>
+  <si>
+    <t>https://v3.cn.vuejs.org/</t>
+  </si>
+  <si>
+    <t>vue-router</t>
+  </si>
+  <si>
+    <t>https://router.vuejs.org</t>
+  </si>
+  <si>
+    <t>vuex</t>
+  </si>
+  <si>
+    <t>https://vuex.vuejs.org</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,9 +75,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,28 +122,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,58 +160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,27 +174,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,9 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,25 +220,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,43 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,109 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,26 +414,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,32 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,22 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,148 +516,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -1033,10 +1044,37 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.runoob.com/typescript/ts-tutorial.html"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.tslang.cn/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.tslang.cn/" tooltip="https://www.tslang.cn/"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://router.vuejs.org" tooltip="https://router.vuejs.org"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://vuex.vuejs.org" tooltip="https://vuex.vuejs.org"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://v3.cn.vuejs.org/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/website/typescript.xlsx
+++ b/website/typescript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +72,80 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,50 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -145,60 +175,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +220,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,169 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,15 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,17 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,11 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +502,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,16 +531,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,115 +549,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/website/typescript.xlsx
+++ b/website/typescript.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="vue3" sheetId="2" r:id="rId2"/>
+    <sheet name="未知" sheetId="3" r:id="rId3"/>
+    <sheet name="报错" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TypeScript菜鸟教程</t>
   </si>
@@ -24,7 +25,7 @@
     <t>https://www.runoob.com/typescript/ts-tutorial.html</t>
   </si>
   <si>
-    <t>TypeScript官网</t>
+    <t>TypeScript中文网</t>
   </si>
   <si>
     <t>https://www.tslang.cn/</t>
@@ -46,6 +47,67 @@
   </si>
   <si>
     <t>https://vuex.vuejs.org</t>
+  </si>
+  <si>
+    <t>vue3官网中文文档</t>
+  </si>
+  <si>
+    <t>https://www.javascriptc.com/vue3js/</t>
+  </si>
+  <si>
+    <t>vue中的axios的封装使用</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_42369598/article/details/125832152</t>
+  </si>
+  <si>
+    <t>ts封装axios,多个实例灵活配置，拦截提示</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huanmeng122/article/details/124004648</t>
+  </si>
+  <si>
+    <t>Vue 3 UI 框架 | Element Plus</t>
+  </si>
+  <si>
+    <t>https://element-plus.gitee.io/zh-CN/</t>
+  </si>
+  <si>
+    <t>Ant Design Vue</t>
+  </si>
+  <si>
+    <t>https://www.antdv.com/docs/vue/getting-started-cn/</t>
+  </si>
+  <si>
+    <t>2022年最佳VUE3 + TypeScript + Vite UI框架推荐</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/tgx908061685/article/details/124153907</t>
+  </si>
+  <si>
+    <t>import Vue from 'vue'
+export default Vue.extend({</t>
+  </si>
+  <si>
+    <t>import { Component, Vue, Prop } from “vue-property-decorator”;</t>
+  </si>
+  <si>
+    <t>sourceType: 'module'</t>
+  </si>
+  <si>
+    <t>vue项目编译出现报错Parsing error: ‘import‘ and ‘export‘ may appear only with ‘sourceType: module‘</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/u013278374/article/details/117750949</t>
+  </si>
+  <si>
+    <t>开启eslint</t>
+  </si>
+  <si>
+    <t>Parsing error: Unexpected token : (或=或＜)</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/wz_coming/article/details/116917860</t>
   </si>
 </sst>
 </file>
@@ -53,12 +115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,15 +138,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,35 +175,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +258,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -220,37 +289,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,25 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,115 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +569,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,16 +600,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,10 +621,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,105 +639,114 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,31 +1097,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1048,7 +1129,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1056,7 +1137,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1064,17 +1145,74 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.runoob.com/typescript/ts-tutorial.html"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.runoob.com/typescript/ts-tutorial.html" tooltip="https://www.runoob.com/typescript/ts-tutorial.html"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.tslang.cn/" tooltip="https://www.tslang.cn/"/>
     <hyperlink ref="B8" r:id="rId3" display="https://router.vuejs.org" tooltip="https://router.vuejs.org"/>
     <hyperlink ref="B9" r:id="rId4" display="https://vuex.vuejs.org" tooltip="https://vuex.vuejs.org"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://v3.cn.vuejs.org/"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://v3.cn.vuejs.org/" tooltip="https://v3.cn.vuejs.org/"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://www.javascriptc.com/vue3js/"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://blog.csdn.net/weixin_42369598/article/details/125832152"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://element-plus.gitee.io/zh-CN/"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://blog.csdn.net/huanmeng122/article/details/124004648"/>
+    <hyperlink ref="B18" r:id="rId10" display="https://www.antdv.com/docs/vue/getting-started-cn/"/>
+    <hyperlink ref="B19" r:id="rId11" display="https://blog.csdn.net/tgx908061685/article/details/124153907"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1088,7 +1226,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1102,16 +1240,88 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/u013278374/article/details/117750949"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://blog.csdn.net/wz_coming/article/details/116917860"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>